--- a/biology/Botanique/Parc_de_la_Maison_Blanche/Parc_de_la_Maison_Blanche.xlsx
+++ b/biology/Botanique/Parc_de_la_Maison_Blanche/Parc_de_la_Maison_Blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Maison Blanche est un parc de 5 hectares situé dans le 9e arrondissement de Marseille.
-Le parc dispose d'un lac et de pelouses et d'espace boisés. La plupart des arbres notables — magnolias, séquoias, cèdres, ifs, platanes, liquidambars et un orme de Sibérie — datent du XIXe siècle[1]. 
-Le parc abrite une bastide dans laquelle est installée la mairie du Ve secteur de Marseille[2]. Le Festival des Arts éphémères, consacré à l'art contemporain, se déroule chaque année dans les salons et le parc de la Maison Blanche.
+Le parc dispose d'un lac et de pelouses et d'espace boisés. La plupart des arbres notables — magnolias, séquoias, cèdres, ifs, platanes, liquidambars et un orme de Sibérie — datent du XIXe siècle. 
+Le parc abrite une bastide dans laquelle est installée la mairie du Ve secteur de Marseille. Le Festival des Arts éphémères, consacré à l'art contemporain, se déroule chaque année dans les salons et le parc de la Maison Blanche.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bastide et le parc ont été construits en 1840 par un négociant du nom de Cohen. L'ensemble est racheté par une famille suisse en 1920 qui y construit le lac. Le domaine est acquis par la ville de Marseille en 1978[1]. Elle devient mairie de secteur le 22 juillet 1983.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bastide et le parc ont été construits en 1840 par un négociant du nom de Cohen. L'ensemble est racheté par une famille suisse en 1920 qui y construit le lac. Le domaine est acquis par la ville de Marseille en 1978. Elle devient mairie de secteur le 22 juillet 1983.
 </t>
         </is>
       </c>
